--- a/Computer/MinimumViableOS.xlsx
+++ b/Computer/MinimumViableOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27E1C58C-2F90-437B-BC62-C7FB5E07077D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F9BCEE-6369-4DB0-A52E-D08470976943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B313F2AD-DCC0-4CCF-B756-14A4E152A905}"/>
   </bookViews>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
-  <si>
-    <t>Minimum viable system</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>File/Folder</t>
     <phoneticPr fontId="1"/>
@@ -147,6 +143,18 @@
   </si>
   <si>
     <t>Grand total</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Minimum Viable Floppy System</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@SYS Directory Listing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Notes</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -193,7 +201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,6 +213,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39155744-0B3E-45EF-8E56-CA6536B218D2}">
-  <dimension ref="B5:E28"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -532,258 +549,304 @@
     <col min="3" max="3" width="5.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5">
-      <c r="B5" s="3" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>64</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <f>SUM(D4:D11)</f>
+        <v>79</v>
+      </c>
+      <c r="E12" s="1">
+        <f>SUM(E10:E11)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1">
-        <f>SUM(D7:D14)</f>
-        <v>79</v>
-      </c>
-      <c r="E15" s="1">
-        <f>SUM(E13:E14)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1">
-        <v>12</v>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="1">
-        <v>96</v>
-      </c>
-      <c r="E28" s="1">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B17:E17"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
